--- a/Dokumenter/Brukertesting.xlsx
+++ b/Dokumenter/Brukertesting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/mataa016_osloskolen_no/Documents/Videregående/VG2/Development/AArsoppgave/Dokumenter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/mataa016_osloskolen_no/Documents/Videregående/VG2/Development/Terminnoppgave/aarsoppgave/Dokumenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC1048B8C19A4C145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BE3C649-ABB5-4297-A648-468AA8B10558}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_F25DC773A252ABDACC1048B8C19A4C145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E72728B-E10D-4BFB-BE9D-5F9022192072}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Navn</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>Bilder i handlekurv. Passe på at alt er norsk. Varsel på registrering fullført.</t>
+  </si>
+  <si>
+    <t>Ann-kristin Hansen</t>
+  </si>
+  <si>
+    <t>Liker brukervennligheten og farge valg</t>
+  </si>
+  <si>
+    <t>Bilder I handlekurven. Mer varsel.</t>
+  </si>
+  <si>
+    <t>Torodd hansen</t>
+  </si>
+  <si>
+    <t>Liker at det er enkelt å bestille. Enkel å bruke</t>
+  </si>
+  <si>
+    <t>Lagring av adresse på bestilling. E-post med bekreftelse og ordre-nummer</t>
   </si>
 </sst>
 </file>
@@ -399,7 +417,7 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,17 +456,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45345</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45356</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
